--- a/project management/Project Plan.xlsx
+++ b/project management/Project Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xthea\OneDrive\Documents\Admin\Bootcamp\Carleton University\Classes\Module 21 - Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF92CD9-CD41-49DE-A97F-AC3309793C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF784C9B-807A-4710-9F95-B2837A67069A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,7 +427,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="135">
   <si>
     <t>WBS</t>
   </si>
@@ -1320,9 +1320,6 @@
     <t>Merge to main branch</t>
   </si>
   <si>
-    <t>Doing the Test</t>
-  </si>
-  <si>
     <t>Presentation the 3rd segment</t>
   </si>
   <si>
@@ -1332,18 +1329,9 @@
     <t>Meeting to review the deliverable, presentation, and assignment for the next segment</t>
   </si>
   <si>
-    <t>Dashboard</t>
-  </si>
-  <si>
-    <t>Machine Learning Model</t>
-  </si>
-  <si>
     <t>Database</t>
   </si>
   <si>
-    <t>Build a website</t>
-  </si>
-  <si>
     <t>Tim</t>
   </si>
   <si>
@@ -1371,15 +1359,9 @@
     <t>Insert Clean Data into Database</t>
   </si>
   <si>
-    <t>Estel &amp; Tim</t>
-  </si>
-  <si>
     <t>Phuong &amp; Gokcen</t>
   </si>
   <si>
-    <t>Deploy ML Model as a Web Service</t>
-  </si>
-  <si>
     <t>Build 2 or 3 ML Models</t>
   </si>
   <si>
@@ -1405,6 +1387,27 @@
   </si>
   <si>
     <t>Upload Clean Data as .csv file to Github</t>
+  </si>
+  <si>
+    <t>Gokcen &amp; Estel</t>
+  </si>
+  <si>
+    <t>Matt &amp; Tim</t>
+  </si>
+  <si>
+    <t>Matt &amp; Estel</t>
+  </si>
+  <si>
+    <t>Draft version of HTML Page</t>
+  </si>
+  <si>
+    <t>Run Test Data in Model</t>
+  </si>
+  <si>
+    <t>Build visualization from output - ML model (Test Data)</t>
+  </si>
+  <si>
+    <t>Phuong, Gokcen and Estel</t>
   </si>
 </sst>
 </file>
@@ -1417,7 +1420,7 @@
     <numFmt numFmtId="166" formatCode="d"/>
     <numFmt numFmtId="167" formatCode="d\ mmm\ yyyy"/>
   </numFmts>
-  <fonts count="80" x14ac:knownFonts="1">
+  <fonts count="78" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1945,20 +1948,6 @@
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="28">
@@ -2619,7 +2608,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2956,70 +2945,22 @@
     <xf numFmtId="0" fontId="40" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="77" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="23" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="46" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="46" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="46" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="46" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="46" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="23" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="23" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="46" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="46" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="23" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="23" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="46" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="46" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="23" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="63" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="46" fillId="23" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="46" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="46" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3067,23 +3008,56 @@
     <xf numFmtId="167" fontId="46" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="63" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="46" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="46" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="46" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="46" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="23" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="23" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="46" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="46" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="23" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="23" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="46" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="46" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="78" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="78" fillId="22" borderId="11" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="79" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -3265,13 +3239,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>722584</xdr:colOff>
+      <xdr:colOff>253303</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>71553</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>90139</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>187325</xdr:rowOff>
     </xdr:to>
@@ -3722,15 +3696,15 @@
   <dimension ref="A1:ET47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
+      <pane ySplit="7" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="10" customWidth="1"/>
     <col min="2" max="2" width="42.42578125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" style="10" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="10" customWidth="1"/>
     <col min="7" max="7" width="6" style="10" customWidth="1"/>
@@ -3743,7 +3717,7 @@
   <sheetData>
     <row r="1" spans="1:150" s="25" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="96" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -3752,25 +3726,25 @@
       <c r="F1" s="24"/>
       <c r="G1" s="119"/>
       <c r="K1" s="26"/>
-      <c r="AD1" s="138"/>
-      <c r="AE1" s="138"/>
-      <c r="AF1" s="138"/>
-      <c r="AG1" s="138"/>
-      <c r="AH1" s="138"/>
-      <c r="AI1" s="138"/>
-      <c r="AJ1" s="138"/>
-      <c r="AK1" s="138"/>
-      <c r="AL1" s="138"/>
-      <c r="AM1" s="138"/>
-      <c r="AN1" s="138"/>
-      <c r="AO1" s="138"/>
-      <c r="AP1" s="138"/>
-      <c r="AQ1" s="138"/>
-      <c r="AR1" s="138"/>
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="120"/>
+      <c r="AG1" s="120"/>
+      <c r="AH1" s="120"/>
+      <c r="AI1" s="120"/>
+      <c r="AJ1" s="120"/>
+      <c r="AK1" s="120"/>
+      <c r="AL1" s="120"/>
+      <c r="AM1" s="120"/>
+      <c r="AN1" s="120"/>
+      <c r="AO1" s="120"/>
+      <c r="AP1" s="120"/>
+      <c r="AQ1" s="120"/>
+      <c r="AR1" s="120"/>
     </row>
     <row r="2" spans="1:150" s="42" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="90" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -3846,190 +3820,190 @@
       <c r="B4" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="145">
+      <c r="C4" s="129">
         <v>44941</v>
       </c>
-      <c r="D4" s="146"/>
-      <c r="E4" s="147"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="131"/>
       <c r="H4" s="91" t="s">
         <v>30</v>
       </c>
       <c r="I4" s="92">
         <v>1</v>
       </c>
-      <c r="K4" s="143" t="str">
+      <c r="K4" s="127" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="121"/>
-      <c r="O4" s="121"/>
-      <c r="P4" s="121"/>
-      <c r="Q4" s="148"/>
-      <c r="R4" s="143" t="str">
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="122"/>
+      <c r="Q4" s="132"/>
+      <c r="R4" s="127" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="121"/>
-      <c r="T4" s="121"/>
-      <c r="U4" s="121"/>
-      <c r="V4" s="121"/>
-      <c r="W4" s="121"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="152" t="str">
+      <c r="S4" s="122"/>
+      <c r="T4" s="122"/>
+      <c r="U4" s="122"/>
+      <c r="V4" s="122"/>
+      <c r="W4" s="122"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="136" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="121"/>
-      <c r="AA4" s="121"/>
-      <c r="AB4" s="121"/>
-      <c r="AC4" s="121"/>
-      <c r="AD4" s="121"/>
-      <c r="AE4" s="153"/>
-      <c r="AF4" s="139" t="str">
+      <c r="Z4" s="122"/>
+      <c r="AA4" s="122"/>
+      <c r="AB4" s="122"/>
+      <c r="AC4" s="122"/>
+      <c r="AD4" s="122"/>
+      <c r="AE4" s="137"/>
+      <c r="AF4" s="121" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="121"/>
-      <c r="AH4" s="121"/>
-      <c r="AI4" s="121"/>
-      <c r="AJ4" s="121"/>
-      <c r="AK4" s="121"/>
-      <c r="AL4" s="140"/>
-      <c r="AM4" s="132" t="str">
+      <c r="AG4" s="122"/>
+      <c r="AH4" s="122"/>
+      <c r="AI4" s="122"/>
+      <c r="AJ4" s="122"/>
+      <c r="AK4" s="122"/>
+      <c r="AL4" s="123"/>
+      <c r="AM4" s="150" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="121"/>
-      <c r="AO4" s="121"/>
-      <c r="AP4" s="121"/>
-      <c r="AQ4" s="121"/>
-      <c r="AR4" s="121"/>
-      <c r="AS4" s="133"/>
-      <c r="AT4" s="128" t="str">
+      <c r="AN4" s="122"/>
+      <c r="AO4" s="122"/>
+      <c r="AP4" s="122"/>
+      <c r="AQ4" s="122"/>
+      <c r="AR4" s="122"/>
+      <c r="AS4" s="151"/>
+      <c r="AT4" s="146" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="121"/>
-      <c r="AV4" s="121"/>
-      <c r="AW4" s="121"/>
-      <c r="AX4" s="121"/>
-      <c r="AY4" s="121"/>
-      <c r="AZ4" s="129"/>
-      <c r="BA4" s="134" t="str">
+      <c r="AU4" s="122"/>
+      <c r="AV4" s="122"/>
+      <c r="AW4" s="122"/>
+      <c r="AX4" s="122"/>
+      <c r="AY4" s="122"/>
+      <c r="AZ4" s="147"/>
+      <c r="BA4" s="152" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="121"/>
-      <c r="BC4" s="121"/>
-      <c r="BD4" s="121"/>
-      <c r="BE4" s="121"/>
-      <c r="BF4" s="121"/>
-      <c r="BG4" s="135"/>
-      <c r="BH4" s="120" t="str">
+      <c r="BB4" s="122"/>
+      <c r="BC4" s="122"/>
+      <c r="BD4" s="122"/>
+      <c r="BE4" s="122"/>
+      <c r="BF4" s="122"/>
+      <c r="BG4" s="153"/>
+      <c r="BH4" s="140" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="121"/>
-      <c r="BJ4" s="121"/>
-      <c r="BK4" s="121"/>
-      <c r="BL4" s="121"/>
-      <c r="BM4" s="121"/>
-      <c r="BN4" s="122"/>
+      <c r="BI4" s="122"/>
+      <c r="BJ4" s="122"/>
+      <c r="BK4" s="122"/>
+      <c r="BL4" s="122"/>
+      <c r="BM4" s="122"/>
+      <c r="BN4" s="141"/>
     </row>
     <row r="5" spans="1:150" s="38" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="89"/>
       <c r="B5" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="145"/>
-      <c r="D5" s="146"/>
-      <c r="E5" s="147"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="131"/>
       <c r="F5" s="89"/>
       <c r="G5" s="89"/>
       <c r="H5" s="89"/>
       <c r="I5" s="89"/>
-      <c r="K5" s="149">
+      <c r="K5" s="133">
         <f>K6</f>
         <v>44942</v>
       </c>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="124"/>
-      <c r="Q5" s="151"/>
-      <c r="R5" s="149">
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="125"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="135"/>
+      <c r="R5" s="133">
         <f>R6</f>
         <v>44949</v>
       </c>
-      <c r="S5" s="124"/>
-      <c r="T5" s="124"/>
-      <c r="U5" s="124"/>
-      <c r="V5" s="124"/>
-      <c r="W5" s="124"/>
-      <c r="X5" s="150"/>
-      <c r="Y5" s="154">
+      <c r="S5" s="125"/>
+      <c r="T5" s="125"/>
+      <c r="U5" s="125"/>
+      <c r="V5" s="125"/>
+      <c r="W5" s="125"/>
+      <c r="X5" s="134"/>
+      <c r="Y5" s="138">
         <f>Y6</f>
         <v>44956</v>
       </c>
-      <c r="Z5" s="124"/>
-      <c r="AA5" s="124"/>
-      <c r="AB5" s="124"/>
-      <c r="AC5" s="124"/>
-      <c r="AD5" s="124"/>
-      <c r="AE5" s="155"/>
-      <c r="AF5" s="141">
+      <c r="Z5" s="125"/>
+      <c r="AA5" s="125"/>
+      <c r="AB5" s="125"/>
+      <c r="AC5" s="125"/>
+      <c r="AD5" s="125"/>
+      <c r="AE5" s="139"/>
+      <c r="AF5" s="124">
         <f>AF6</f>
         <v>44963</v>
       </c>
-      <c r="AG5" s="124"/>
-      <c r="AH5" s="124"/>
-      <c r="AI5" s="124"/>
-      <c r="AJ5" s="124"/>
-      <c r="AK5" s="124"/>
-      <c r="AL5" s="142"/>
-      <c r="AM5" s="126">
+      <c r="AG5" s="125"/>
+      <c r="AH5" s="125"/>
+      <c r="AI5" s="125"/>
+      <c r="AJ5" s="125"/>
+      <c r="AK5" s="125"/>
+      <c r="AL5" s="126"/>
+      <c r="AM5" s="144">
         <f>AM6</f>
         <v>44970</v>
       </c>
-      <c r="AN5" s="124"/>
-      <c r="AO5" s="124"/>
-      <c r="AP5" s="124"/>
-      <c r="AQ5" s="124"/>
-      <c r="AR5" s="124"/>
-      <c r="AS5" s="127"/>
-      <c r="AT5" s="130">
+      <c r="AN5" s="125"/>
+      <c r="AO5" s="125"/>
+      <c r="AP5" s="125"/>
+      <c r="AQ5" s="125"/>
+      <c r="AR5" s="125"/>
+      <c r="AS5" s="145"/>
+      <c r="AT5" s="148">
         <f>AT6</f>
         <v>44977</v>
       </c>
-      <c r="AU5" s="124"/>
-      <c r="AV5" s="124"/>
-      <c r="AW5" s="124"/>
-      <c r="AX5" s="124"/>
-      <c r="AY5" s="124"/>
-      <c r="AZ5" s="131"/>
-      <c r="BA5" s="136">
+      <c r="AU5" s="125"/>
+      <c r="AV5" s="125"/>
+      <c r="AW5" s="125"/>
+      <c r="AX5" s="125"/>
+      <c r="AY5" s="125"/>
+      <c r="AZ5" s="149"/>
+      <c r="BA5" s="154">
         <f>BA6</f>
         <v>44984</v>
       </c>
-      <c r="BB5" s="124"/>
-      <c r="BC5" s="124"/>
-      <c r="BD5" s="124"/>
-      <c r="BE5" s="124"/>
-      <c r="BF5" s="124"/>
-      <c r="BG5" s="137"/>
-      <c r="BH5" s="123">
+      <c r="BB5" s="125"/>
+      <c r="BC5" s="125"/>
+      <c r="BD5" s="125"/>
+      <c r="BE5" s="125"/>
+      <c r="BF5" s="125"/>
+      <c r="BG5" s="155"/>
+      <c r="BH5" s="142">
         <f>BH6</f>
         <v>44991</v>
       </c>
-      <c r="BI5" s="124"/>
-      <c r="BJ5" s="124"/>
-      <c r="BK5" s="124"/>
-      <c r="BL5" s="124"/>
-      <c r="BM5" s="124"/>
-      <c r="BN5" s="125"/>
+      <c r="BI5" s="125"/>
+      <c r="BJ5" s="125"/>
+      <c r="BK5" s="125"/>
+      <c r="BL5" s="125"/>
+      <c r="BM5" s="125"/>
+      <c r="BN5" s="143"/>
     </row>
     <row r="6" spans="1:150" s="36" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K6" s="47">
@@ -4596,9 +4570,8 @@
       <c r="ET7" s="34"/>
     </row>
     <row r="8" spans="1:150" s="11" customFormat="1" ht="18.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="74" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
+      <c r="A8" s="74">
+        <v>0</v>
       </c>
       <c r="B8" s="62" t="s">
         <v>85</v>
@@ -4670,7 +4643,7 @@
     <row r="9" spans="1:150" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="75" t="str">
         <f t="shared" ref="A9:A11" si="8">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="B9" s="71" t="s">
         <v>86</v>
@@ -4757,13 +4730,13 @@
     <row r="10" spans="1:150" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="75" t="str">
         <f t="shared" si="8"/>
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="B10" s="71" t="s">
         <v>89</v>
       </c>
       <c r="C10" s="72" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D10" s="73"/>
       <c r="E10" s="70">
@@ -4844,7 +4817,7 @@
     <row r="11" spans="1:150" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="75" t="str">
         <f t="shared" si="8"/>
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="B11" s="71" t="s">
         <v>90</v>
@@ -4931,7 +4904,7 @@
     <row r="12" spans="1:150" s="16" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="76" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="63" t="s">
         <v>92</v>
@@ -5003,13 +4976,13 @@
     <row r="13" spans="1:150" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="75" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>100</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="70">
@@ -5088,13 +5061,13 @@
     </row>
     <row r="14" spans="1:150" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="75">
-        <v>2.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>103</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="70">
@@ -5169,11 +5142,12 @@
       <c r="BN14" s="19"/>
     </row>
     <row r="15" spans="1:150" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="75">
-        <v>2.2999999999999998</v>
+      <c r="A15" s="75" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.3</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>87</v>
@@ -5251,15 +5225,14 @@
       <c r="BN15" s="19"/>
     </row>
     <row r="16" spans="1:150" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="75" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.4</v>
+      <c r="A16" s="75">
+        <v>1.4</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>101</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="70">
@@ -5338,14 +5311,15 @@
       <c r="BN16" s="19"/>
     </row>
     <row r="17" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="75">
-        <v>2.5</v>
+      <c r="A17" s="75" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.5</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>102</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="70">
@@ -5425,13 +5399,13 @@
     </row>
     <row r="18" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="75">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>98</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="70">
@@ -5511,13 +5485,13 @@
     </row>
     <row r="19" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="75">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>97</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="70">
@@ -5597,13 +5571,13 @@
     </row>
     <row r="20" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="75">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>104</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="70">
@@ -5616,7 +5590,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="85"/>
       <c r="J20" s="78"/>
@@ -5679,10 +5653,10 @@
     </row>
     <row r="21" spans="1:66" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A21" s="75">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>91</v>
@@ -5766,13 +5740,13 @@
     <row r="22" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="75" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.10</v>
+        <v>1.10</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>99</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="70">
@@ -5853,7 +5827,7 @@
     <row r="23" spans="1:66" s="16" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="76" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" s="63" t="s">
         <v>93</v>
@@ -5925,13 +5899,13 @@
     <row r="24" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="75" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="70">
@@ -5945,7 +5919,7 @@
         <v>5</v>
       </c>
       <c r="H24" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="85">
         <f>IF(OR(F24=0,E24=0),0,NETWORKDAYS(E24,F24))</f>
@@ -6011,13 +5985,13 @@
     </row>
     <row r="25" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="75">
-        <v>3.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="70">
@@ -6031,7 +6005,7 @@
         <v>5</v>
       </c>
       <c r="H25" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="85">
         <v>5</v>
@@ -6096,10 +6070,10 @@
     </row>
     <row r="26" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="75">
-        <v>3.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>91</v>
@@ -6116,7 +6090,7 @@
         <v>5</v>
       </c>
       <c r="H26" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="85">
         <f>IF(OR(F26=0,E26=0),0,NETWORKDAYS(E26,F26))</f>
@@ -6181,15 +6155,14 @@
       <c r="BN26" s="19"/>
     </row>
     <row r="27" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="75" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.4</v>
+      <c r="A27" s="75">
+        <v>2.4</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="70">
@@ -6203,7 +6176,7 @@
         <v>5</v>
       </c>
       <c r="H27" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="85">
         <v>5</v>
@@ -6268,13 +6241,13 @@
     </row>
     <row r="28" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="75">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="70">
@@ -6288,7 +6261,7 @@
         <v>5</v>
       </c>
       <c r="H28" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="85">
         <v>5</v>
@@ -6353,13 +6326,13 @@
     </row>
     <row r="29" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="75">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="70">
@@ -6373,7 +6346,7 @@
         <v>5</v>
       </c>
       <c r="H29" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="85">
         <v>5</v>
@@ -6437,12 +6410,11 @@
       <c r="BN29" s="19"/>
     </row>
     <row r="30" spans="1:66" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A30" s="75" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.7</v>
+      <c r="A30" s="75">
+        <v>2.7</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>91</v>
@@ -6459,7 +6431,7 @@
         <v>5</v>
       </c>
       <c r="H30" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="85">
         <f>IF(OR(F30=0,E30=0),0,NETWORKDAYS(E30,F30))</f>
@@ -6525,13 +6497,13 @@
     </row>
     <row r="31" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="75">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>98</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="70">
@@ -6545,7 +6517,7 @@
         <v>5</v>
       </c>
       <c r="H31" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="85">
         <f>IF(OR(F31=0,E31=0),0,NETWORKDAYS(E31,F31))</f>
@@ -6611,13 +6583,13 @@
     </row>
     <row r="32" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="75">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="70">
@@ -6631,7 +6603,7 @@
         <v>5</v>
       </c>
       <c r="H32" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="85">
         <f>IF(OR(F32=0,E32=0),0,NETWORKDAYS(E32,F32))</f>
@@ -6696,15 +6668,14 @@
       <c r="BN32" s="19"/>
     </row>
     <row r="33" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="75" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.10</v>
+      <c r="A33" s="75">
+        <v>2.1</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="70">
@@ -6718,11 +6689,9 @@
         <v>5</v>
       </c>
       <c r="H33" s="28">
-        <v>0</v>
-      </c>
-      <c r="I33" s="85">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I33" s="85"/>
       <c r="J33" s="78"/>
       <c r="K33" s="19"/>
       <c r="L33" s="19"/>
@@ -6783,30 +6752,29 @@
     </row>
     <row r="34" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="75">
-        <v>3.11</v>
+        <v>2.11</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="70">
         <v>44949</v>
       </c>
       <c r="F34" s="67">
-        <f t="shared" ref="F34" si="16">IF(ISBLANK(E34)," - ",IF(G34=0,E34,E34+G34-1))</f>
+        <f>IF(ISBLANK(E34)," - ",IF(G34=0,E34,E34+G34-1))</f>
         <v>44953</v>
       </c>
       <c r="G34" s="27">
         <v>5</v>
       </c>
       <c r="H34" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="85">
-        <f>IF(OR(F34=0,E34=0),0,NETWORKDAYS(E34,F34))</f>
         <v>5</v>
       </c>
       <c r="J34" s="78"/>
@@ -6867,173 +6835,193 @@
       <c r="BM34" s="19"/>
       <c r="BN34" s="19"/>
     </row>
-    <row r="35" spans="1:66" s="16" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="76" t="str">
+    <row r="35" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="75">
+        <v>2.12</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="18"/>
+      <c r="E35" s="70">
+        <v>44949</v>
+      </c>
+      <c r="F35" s="67">
+        <f t="shared" ref="F35" si="16">IF(ISBLANK(E35)," - ",IF(G35=0,E35,E35+G35-1))</f>
+        <v>44953</v>
+      </c>
+      <c r="G35" s="27">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28">
+        <v>1</v>
+      </c>
+      <c r="I35" s="85">
+        <f>IF(OR(F35=0,E35=0),0,NETWORKDAYS(E35,F35))</f>
+        <v>5</v>
+      </c>
+      <c r="J35" s="78"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="19"/>
+      <c r="AC35" s="19"/>
+      <c r="AD35" s="19"/>
+      <c r="AE35" s="19"/>
+      <c r="AF35" s="19"/>
+      <c r="AG35" s="19"/>
+      <c r="AH35" s="19"/>
+      <c r="AI35" s="19"/>
+      <c r="AJ35" s="19"/>
+      <c r="AK35" s="19"/>
+      <c r="AL35" s="19"/>
+      <c r="AM35" s="19"/>
+      <c r="AN35" s="19"/>
+      <c r="AO35" s="19"/>
+      <c r="AP35" s="19"/>
+      <c r="AQ35" s="19"/>
+      <c r="AR35" s="19"/>
+      <c r="AS35" s="19"/>
+      <c r="AT35" s="19"/>
+      <c r="AU35" s="19"/>
+      <c r="AV35" s="19"/>
+      <c r="AW35" s="19"/>
+      <c r="AX35" s="19"/>
+      <c r="AY35" s="19"/>
+      <c r="AZ35" s="19"/>
+      <c r="BA35" s="19"/>
+      <c r="BB35" s="19"/>
+      <c r="BC35" s="19"/>
+      <c r="BD35" s="19"/>
+      <c r="BE35" s="19"/>
+      <c r="BF35" s="19"/>
+      <c r="BG35" s="19"/>
+      <c r="BH35" s="19"/>
+      <c r="BI35" s="19"/>
+      <c r="BJ35" s="19"/>
+      <c r="BK35" s="19"/>
+      <c r="BL35" s="19"/>
+      <c r="BM35" s="19"/>
+      <c r="BN35" s="19"/>
+    </row>
+    <row r="36" spans="1:66" s="16" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="76" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>4</v>
-      </c>
-      <c r="B35" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="21"/>
-      <c r="W35" s="21"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="21"/>
-      <c r="Z35" s="21"/>
-      <c r="AA35" s="21"/>
-      <c r="AB35" s="21"/>
-      <c r="AC35" s="21"/>
-      <c r="AD35" s="21"/>
-      <c r="AE35" s="21"/>
-      <c r="AF35" s="21"/>
-      <c r="AG35" s="21"/>
-      <c r="AH35" s="21"/>
-      <c r="AI35" s="21"/>
-      <c r="AJ35" s="21"/>
-      <c r="AK35" s="21"/>
-      <c r="AL35" s="21"/>
-      <c r="AM35" s="21"/>
-      <c r="AN35" s="21"/>
-      <c r="AO35" s="21"/>
-      <c r="AP35" s="21"/>
-      <c r="AQ35" s="21"/>
-      <c r="AR35" s="21"/>
-      <c r="AS35" s="21"/>
-      <c r="AT35" s="21"/>
-      <c r="AU35" s="21"/>
-      <c r="AV35" s="21"/>
-      <c r="AW35" s="21"/>
-      <c r="AX35" s="21"/>
-      <c r="AY35" s="21"/>
-      <c r="AZ35" s="21"/>
-      <c r="BA35" s="21"/>
-      <c r="BB35" s="21"/>
-      <c r="BC35" s="21"/>
-      <c r="BD35" s="21"/>
-      <c r="BE35" s="21"/>
-      <c r="BF35" s="21"/>
-      <c r="BG35" s="21"/>
-      <c r="BH35" s="21"/>
-      <c r="BI35" s="21"/>
-      <c r="BJ35" s="21"/>
-      <c r="BK35" s="21"/>
-      <c r="BL35" s="21"/>
-      <c r="BM35" s="21"/>
-      <c r="BN35" s="21"/>
-    </row>
-    <row r="36" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="75" t="str">
-        <f t="shared" ref="A36:A42" si="17">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.1</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="67" t="str">
-        <f t="shared" ref="F36:F43" si="18">IF(ISBLANK(E36)," - ",IF(G36=0,E36,E36+G36-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G36" s="27">
-        <v>1</v>
-      </c>
-      <c r="H36" s="28">
+      <c r="D36" s="21"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="21"/>
+      <c r="AB36" s="21"/>
+      <c r="AC36" s="21"/>
+      <c r="AD36" s="21"/>
+      <c r="AE36" s="21"/>
+      <c r="AF36" s="21"/>
+      <c r="AG36" s="21"/>
+      <c r="AH36" s="21"/>
+      <c r="AI36" s="21"/>
+      <c r="AJ36" s="21"/>
+      <c r="AK36" s="21"/>
+      <c r="AL36" s="21"/>
+      <c r="AM36" s="21"/>
+      <c r="AN36" s="21"/>
+      <c r="AO36" s="21"/>
+      <c r="AP36" s="21"/>
+      <c r="AQ36" s="21"/>
+      <c r="AR36" s="21"/>
+      <c r="AS36" s="21"/>
+      <c r="AT36" s="21"/>
+      <c r="AU36" s="21"/>
+      <c r="AV36" s="21"/>
+      <c r="AW36" s="21"/>
+      <c r="AX36" s="21"/>
+      <c r="AY36" s="21"/>
+      <c r="AZ36" s="21"/>
+      <c r="BA36" s="21"/>
+      <c r="BB36" s="21"/>
+      <c r="BC36" s="21"/>
+      <c r="BD36" s="21"/>
+      <c r="BE36" s="21"/>
+      <c r="BF36" s="21"/>
+      <c r="BG36" s="21"/>
+      <c r="BH36" s="21"/>
+      <c r="BI36" s="21"/>
+      <c r="BJ36" s="21"/>
+      <c r="BK36" s="21"/>
+      <c r="BL36" s="21"/>
+      <c r="BM36" s="21"/>
+      <c r="BN36" s="21"/>
+    </row>
+    <row r="37" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="75" t="str">
+        <f t="shared" ref="A37:A42" si="17">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.1</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="18"/>
+      <c r="E37" s="70">
+        <v>44956</v>
+      </c>
+      <c r="F37" s="67">
+        <f t="shared" ref="F37:F43" si="18">IF(ISBLANK(E37)," - ",IF(G37=0,E37,E37+G37-1))</f>
+        <v>44960</v>
+      </c>
+      <c r="G37" s="27">
+        <v>5</v>
+      </c>
+      <c r="H37" s="28">
         <v>0</v>
       </c>
-      <c r="I36" s="85">
-        <f t="shared" ref="I36:I43" si="19">IF(OR(F36=0,E36=0),0,NETWORKDAYS(E36,F36))</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="78"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="19"/>
-      <c r="Y36" s="19"/>
-      <c r="Z36" s="19"/>
-      <c r="AA36" s="19"/>
-      <c r="AB36" s="19"/>
-      <c r="AC36" s="19"/>
-      <c r="AD36" s="19"/>
-      <c r="AE36" s="19"/>
-      <c r="AF36" s="19"/>
-      <c r="AG36" s="19"/>
-      <c r="AH36" s="19"/>
-      <c r="AI36" s="19"/>
-      <c r="AJ36" s="19"/>
-      <c r="AK36" s="19"/>
-      <c r="AL36" s="19"/>
-      <c r="AM36" s="19"/>
-      <c r="AN36" s="19"/>
-      <c r="AO36" s="19"/>
-      <c r="AP36" s="19"/>
-      <c r="AQ36" s="19"/>
-      <c r="AR36" s="19"/>
-      <c r="AS36" s="19"/>
-      <c r="AT36" s="19"/>
-      <c r="AU36" s="19"/>
-      <c r="AV36" s="19"/>
-      <c r="AW36" s="19"/>
-      <c r="AX36" s="19"/>
-      <c r="AY36" s="19"/>
-      <c r="AZ36" s="19"/>
-      <c r="BA36" s="19"/>
-      <c r="BB36" s="19"/>
-      <c r="BC36" s="19"/>
-      <c r="BD36" s="19"/>
-      <c r="BE36" s="19"/>
-      <c r="BF36" s="19"/>
-      <c r="BG36" s="19"/>
-      <c r="BH36" s="19"/>
-      <c r="BI36" s="19"/>
-      <c r="BJ36" s="19"/>
-      <c r="BK36" s="19"/>
-      <c r="BL36" s="19"/>
-      <c r="BM36" s="19"/>
-      <c r="BN36" s="19"/>
-    </row>
-    <row r="37" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="75">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="85"/>
+      <c r="I37" s="85">
+        <f t="shared" ref="I37:I43" si="19">IF(OR(F37=0,E37=0),0,NETWORKDAYS(E37,F37))</f>
+        <v>5</v>
+      </c>
       <c r="J37" s="78"/>
       <c r="K37" s="19"/>
       <c r="L37" s="19"/>
@@ -7092,100 +7080,120 @@
       <c r="BM37" s="19"/>
       <c r="BN37" s="19"/>
     </row>
-    <row r="38" spans="1:66" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:66" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A38" s="75" t="str">
         <f t="shared" si="17"/>
-        <v>2.3</v>
-      </c>
-      <c r="B38" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38" s="157"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="158"/>
-      <c r="H38" s="159"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="160"/>
-      <c r="K38" s="161"/>
-      <c r="L38" s="161"/>
-      <c r="M38" s="161"/>
-      <c r="N38" s="161"/>
-      <c r="O38" s="161"/>
-      <c r="P38" s="161"/>
-      <c r="Q38" s="161"/>
-      <c r="R38" s="161"/>
-      <c r="S38" s="161"/>
-      <c r="T38" s="161"/>
-      <c r="U38" s="161"/>
-      <c r="V38" s="161"/>
-      <c r="W38" s="161"/>
-      <c r="X38" s="161"/>
-      <c r="Y38" s="161"/>
-      <c r="Z38" s="161"/>
-      <c r="AA38" s="161"/>
-      <c r="AB38" s="161"/>
-      <c r="AC38" s="161"/>
-      <c r="AD38" s="161"/>
-      <c r="AE38" s="161"/>
-      <c r="AF38" s="161"/>
-      <c r="AG38" s="161"/>
-      <c r="AH38" s="161"/>
-      <c r="AI38" s="161"/>
-      <c r="AJ38" s="161"/>
-      <c r="AK38" s="161"/>
-      <c r="AL38" s="161"/>
-      <c r="AM38" s="161"/>
-      <c r="AN38" s="161"/>
-      <c r="AO38" s="161"/>
-      <c r="AP38" s="161"/>
-      <c r="AQ38" s="161"/>
-      <c r="AR38" s="161"/>
-      <c r="AS38" s="161"/>
-      <c r="AT38" s="161"/>
-      <c r="AU38" s="161"/>
-      <c r="AV38" s="161"/>
-      <c r="AW38" s="161"/>
-      <c r="AX38" s="161"/>
-      <c r="AY38" s="161"/>
-      <c r="AZ38" s="161"/>
-      <c r="BA38" s="161"/>
-      <c r="BB38" s="161"/>
-      <c r="BC38" s="161"/>
-      <c r="BD38" s="161"/>
-      <c r="BE38" s="161"/>
-      <c r="BF38" s="161"/>
-      <c r="BG38" s="161"/>
-      <c r="BH38" s="161"/>
-      <c r="BI38" s="161"/>
-      <c r="BJ38" s="161"/>
-      <c r="BK38" s="161"/>
-      <c r="BL38" s="161"/>
-      <c r="BM38" s="161"/>
-      <c r="BN38" s="161"/>
+        <v>3.2</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="18"/>
+      <c r="E38" s="70">
+        <v>44956</v>
+      </c>
+      <c r="F38" s="67">
+        <f t="shared" ref="F38" si="20">IF(ISBLANK(E38)," - ",IF(G38=0,E38,E38+G38-1))</f>
+        <v>44960</v>
+      </c>
+      <c r="G38" s="27">
+        <v>5</v>
+      </c>
+      <c r="H38" s="28">
+        <v>0</v>
+      </c>
+      <c r="I38" s="85">
+        <f t="shared" ref="I38" si="21">IF(OR(F38=0,E38=0),0,NETWORKDAYS(E38,F38))</f>
+        <v>5</v>
+      </c>
+      <c r="J38" s="78"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="19"/>
+      <c r="AB38" s="19"/>
+      <c r="AC38" s="19"/>
+      <c r="AD38" s="19"/>
+      <c r="AE38" s="19"/>
+      <c r="AF38" s="19"/>
+      <c r="AG38" s="19"/>
+      <c r="AH38" s="19"/>
+      <c r="AI38" s="19"/>
+      <c r="AJ38" s="19"/>
+      <c r="AK38" s="19"/>
+      <c r="AL38" s="19"/>
+      <c r="AM38" s="19"/>
+      <c r="AN38" s="19"/>
+      <c r="AO38" s="19"/>
+      <c r="AP38" s="19"/>
+      <c r="AQ38" s="19"/>
+      <c r="AR38" s="19"/>
+      <c r="AS38" s="19"/>
+      <c r="AT38" s="19"/>
+      <c r="AU38" s="19"/>
+      <c r="AV38" s="19"/>
+      <c r="AW38" s="19"/>
+      <c r="AX38" s="19"/>
+      <c r="AY38" s="19"/>
+      <c r="AZ38" s="19"/>
+      <c r="BA38" s="19"/>
+      <c r="BB38" s="19"/>
+      <c r="BC38" s="19"/>
+      <c r="BD38" s="19"/>
+      <c r="BE38" s="19"/>
+      <c r="BF38" s="19"/>
+      <c r="BG38" s="19"/>
+      <c r="BH38" s="19"/>
+      <c r="BI38" s="19"/>
+      <c r="BJ38" s="19"/>
+      <c r="BK38" s="19"/>
+      <c r="BL38" s="19"/>
+      <c r="BM38" s="19"/>
+      <c r="BN38" s="19"/>
     </row>
     <row r="39" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="75">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="B39" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="17" t="s">
         <v>109</v>
       </c>
       <c r="D39" s="18"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="67" t="str">
-        <f t="shared" ref="F39" si="20">IF(ISBLANK(E39)," - ",IF(G39=0,E39,E39+G39-1))</f>
-        <v xml:space="preserve"> - </v>
+      <c r="E39" s="70">
+        <v>44956</v>
+      </c>
+      <c r="F39" s="67">
+        <f t="shared" si="18"/>
+        <v>44960</v>
       </c>
       <c r="G39" s="27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H39" s="28">
         <v>0</v>
       </c>
       <c r="I39" s="85">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J39" s="78"/>
       <c r="K39" s="19"/>
@@ -7246,29 +7254,23 @@
       <c r="BN39" s="19"/>
     </row>
     <row r="40" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="75" t="str">
-        <f t="shared" si="17"/>
-        <v>2.5</v>
+      <c r="A40" s="75">
+        <v>3.4</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>110</v>
+        <v>98</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>109</v>
       </c>
       <c r="D40" s="18"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="67" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G40" s="27">
-        <v>1</v>
-      </c>
-      <c r="H40" s="28">
-        <v>0</v>
-      </c>
-      <c r="I40" s="85">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
+      <c r="E40" s="70">
+        <v>44956</v>
+      </c>
+      <c r="F40" s="67"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="85"/>
       <c r="J40" s="78"/>
       <c r="K40" s="19"/>
       <c r="L40" s="19"/>
@@ -7329,27 +7331,20 @@
     </row>
     <row r="41" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="75">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>111</v>
+        <v>126</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>109</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="70"/>
-      <c r="F41" s="67" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G41" s="27">
-        <v>1</v>
-      </c>
-      <c r="H41" s="28">
-        <v>0</v>
-      </c>
-      <c r="I41" s="85">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
+      <c r="F41" s="67"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="85"/>
       <c r="J41" s="78"/>
       <c r="K41" s="19"/>
       <c r="L41" s="19"/>
@@ -7411,28 +7406,31 @@
     <row r="42" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="75" t="str">
         <f t="shared" si="17"/>
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="70">
-        <v>44964</v>
+        <v>44956</v>
       </c>
       <c r="F42" s="67">
         <f t="shared" si="18"/>
-        <v>44964</v>
+        <v>44960</v>
       </c>
       <c r="G42" s="27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H42" s="28">
         <v>0</v>
       </c>
       <c r="I42" s="85">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J42" s="78"/>
       <c r="K42" s="19"/>
@@ -7494,28 +7492,31 @@
     </row>
     <row r="43" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="75">
-        <v>2.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="D43" s="18"/>
       <c r="E43" s="70">
-        <v>44965</v>
+        <v>44956</v>
       </c>
       <c r="F43" s="67">
         <f t="shared" si="18"/>
-        <v>44965</v>
+        <v>44960</v>
       </c>
       <c r="G43" s="27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H43" s="28">
         <v>0</v>
       </c>
       <c r="I43" s="85">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J43" s="78"/>
       <c r="K43" s="19"/>
@@ -7578,7 +7579,7 @@
     <row r="44" spans="1:66" s="16" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="76" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B44" s="63" t="s">
         <v>95</v>
@@ -7650,7 +7651,7 @@
     <row r="45" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="75" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.1</v>
+        <v>5.1</v>
       </c>
       <c r="B45" s="20" t="s">
         <v>96</v>
@@ -7663,7 +7664,7 @@
         <v>44965</v>
       </c>
       <c r="F45" s="67">
-        <f t="shared" ref="F45" si="21">IF(ISBLANK(E45)," - ",IF(G45=0,E45,E45+G45-1))</f>
+        <f t="shared" ref="F45" si="22">IF(ISBLANK(E45)," - ",IF(G45=0,E45,E45+G45-1))</f>
         <v>44965</v>
       </c>
       <c r="G45" s="27">
@@ -7739,6 +7740,14 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
     <mergeCell ref="AD1:AR1"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
@@ -7750,14 +7759,6 @@
     <mergeCell ref="K5:Q5"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:H45">
@@ -7792,15 +7793,15 @@
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Display Week" prompt="Enter the week number to display first in the Gantt Chart. The weeks are numbered starting from the week containing the Start Date." sqref="I4" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.25"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="F12 F23 F35 I13 I9:I11 H40:I42 H12:I12 H30:I30 H35:I36 I19 H23:I24 I16:I17" unlockedFormula="1"/>
-    <ignoredError sqref="A35 A23 A12" formula="1"/>
+    <ignoredError sqref="F12 F23 F36 I13 I9:I11 H42:I42 H12:I12 I30 H37:I37 I19 H23:I23 I16:I17 I24 H39:I39 H36:I36" unlockedFormula="1"/>
+    <ignoredError sqref="A36 A23 A12" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
